--- a/Financials/Yearly/E_YR_FIN.xlsx
+++ b/Financials/Yearly/E_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09E79B2-BC79-4777-8BCB-B25373A60D3F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="E" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>E</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,32 +689,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -706,88 +741,88 @@
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>78550200</v>
+        <v>75082400</v>
       </c>
       <c r="E8" s="3">
-        <v>65454000</v>
+        <v>62564400</v>
       </c>
       <c r="F8" s="3">
-        <v>84850000</v>
+        <v>81104200</v>
       </c>
       <c r="G8" s="3">
-        <v>115289300</v>
+        <v>110199600</v>
       </c>
       <c r="H8" s="3">
-        <v>115675500</v>
+        <v>110568700</v>
       </c>
       <c r="I8" s="3">
-        <v>149201800</v>
+        <v>142615000</v>
       </c>
       <c r="J8" s="3">
-        <v>127494500</v>
+        <v>121866100</v>
       </c>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>43703300</v>
+        <v>41773900</v>
       </c>
       <c r="E9" s="3">
-        <v>33575700</v>
+        <v>32093400</v>
       </c>
       <c r="F9" s="3">
-        <v>121187700</v>
+        <v>115837600</v>
       </c>
       <c r="G9" s="3">
-        <v>73362000</v>
+        <v>70123300</v>
       </c>
       <c r="H9" s="3">
-        <v>180278400</v>
+        <v>172319700</v>
       </c>
       <c r="I9" s="3">
-        <v>202579700</v>
+        <v>193636400</v>
       </c>
       <c r="J9" s="3">
-        <v>92409400</v>
+        <v>88329800</v>
       </c>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>34846900</v>
+        <v>33308500</v>
       </c>
       <c r="E10" s="3">
-        <v>31878300</v>
+        <v>30471000</v>
       </c>
       <c r="F10" s="3">
-        <v>-36337600</v>
+        <v>-34733400</v>
       </c>
       <c r="G10" s="3">
-        <v>41927300</v>
+        <v>40076400</v>
       </c>
       <c r="H10" s="3">
-        <v>-64603000</v>
+        <v>-61751000</v>
       </c>
       <c r="I10" s="3">
-        <v>-53377800</v>
+        <v>-51021400</v>
       </c>
       <c r="J10" s="3">
-        <v>35085200</v>
+        <v>33536300</v>
       </c>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -800,7 +835,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -827,7 +862,7 @@
       </c>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -854,61 +889,61 @@
       </c>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-105600</v>
+        <v>-101000</v>
       </c>
       <c r="E14" s="3">
-        <v>84500</v>
+        <v>80800</v>
       </c>
       <c r="F14" s="3">
-        <v>15018900</v>
+        <v>14355900</v>
       </c>
       <c r="G14" s="3">
-        <v>4506300</v>
+        <v>4307300</v>
       </c>
       <c r="H14" s="3">
-        <v>1621000</v>
+        <v>1549500</v>
       </c>
       <c r="I14" s="3">
-        <v>5435900</v>
+        <v>5195900</v>
       </c>
       <c r="J14" s="3">
-        <v>1307600</v>
+        <v>1249900</v>
       </c>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>8786000</v>
+        <v>8398100</v>
       </c>
       <c r="E15" s="3">
-        <v>8875200</v>
+        <v>8483400</v>
       </c>
       <c r="F15" s="3">
-        <v>22458500</v>
+        <v>21467000</v>
       </c>
       <c r="G15" s="3">
-        <v>9017200</v>
+        <v>8619100</v>
       </c>
       <c r="H15" s="3">
-        <v>21081600</v>
+        <v>20150900</v>
       </c>
       <c r="I15" s="3">
-        <v>22523100</v>
+        <v>21528700</v>
       </c>
       <c r="J15" s="3">
-        <v>16422800</v>
+        <v>15697800</v>
       </c>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,61 +953,61 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>68995400</v>
+        <v>65949500</v>
       </c>
       <c r="E17" s="3">
-        <v>63153300</v>
+        <v>60365300</v>
       </c>
       <c r="F17" s="3">
-        <v>88325700</v>
+        <v>84426400</v>
       </c>
       <c r="G17" s="3">
-        <v>104578300</v>
+        <v>99961500</v>
       </c>
       <c r="H17" s="3">
-        <v>102217700</v>
+        <v>97705100</v>
       </c>
       <c r="I17" s="3">
-        <v>130940900</v>
+        <v>125160200</v>
       </c>
       <c r="J17" s="3">
-        <v>107771000</v>
+        <v>103013300</v>
       </c>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>9554800</v>
+        <v>9133000</v>
       </c>
       <c r="E18" s="3">
-        <v>2300700</v>
+        <v>2199100</v>
       </c>
       <c r="F18" s="3">
-        <v>-3475700</v>
+        <v>-3322200</v>
       </c>
       <c r="G18" s="3">
-        <v>10711000</v>
+        <v>10238200</v>
       </c>
       <c r="H18" s="3">
-        <v>13457700</v>
+        <v>12863600</v>
       </c>
       <c r="I18" s="3">
-        <v>18261000</v>
+        <v>17454800</v>
       </c>
       <c r="J18" s="3">
-        <v>19723500</v>
+        <v>18852800</v>
       </c>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -985,142 +1020,142 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-639700</v>
+        <v>-611500</v>
       </c>
       <c r="E20" s="3">
-        <v>-365100</v>
+        <v>-348900</v>
       </c>
       <c r="F20" s="3">
-        <v>-561100</v>
+        <v>-536300</v>
       </c>
       <c r="G20" s="3">
-        <v>23500</v>
+        <v>22400</v>
       </c>
       <c r="H20" s="3">
-        <v>2785500</v>
+        <v>2662500</v>
       </c>
       <c r="I20" s="3">
-        <v>12124300</v>
+        <v>11589000</v>
       </c>
       <c r="J20" s="3">
-        <v>9844700</v>
+        <v>9410100</v>
       </c>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>17704700</v>
+        <v>16937600</v>
       </c>
       <c r="E21" s="3">
-        <v>10814500</v>
+        <v>10351700</v>
       </c>
       <c r="F21" s="3">
-        <v>6464300</v>
+        <v>6196200</v>
       </c>
       <c r="G21" s="3">
-        <v>19750800</v>
+        <v>18893700</v>
       </c>
       <c r="H21" s="3">
-        <v>26350700</v>
+        <v>25204100</v>
       </c>
       <c r="I21" s="3">
-        <v>41714400</v>
-      </c>
-      <c r="J21" s="3">
-        <v>38677400</v>
+        <v>39891500</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>881500</v>
+        <v>842600</v>
       </c>
       <c r="E22" s="3">
-        <v>888600</v>
+        <v>849300</v>
       </c>
       <c r="F22" s="3">
-        <v>983700</v>
+        <v>940200</v>
       </c>
       <c r="G22" s="3">
-        <v>1022400</v>
+        <v>977300</v>
       </c>
       <c r="H22" s="3">
-        <v>1041200</v>
+        <v>995200</v>
       </c>
       <c r="I22" s="3">
-        <v>10869500</v>
+        <v>10389600</v>
       </c>
       <c r="J22" s="3">
-        <v>8697900</v>
+        <v>8313900</v>
       </c>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>8033600</v>
+        <v>7678900</v>
       </c>
       <c r="E23" s="3">
-        <v>1047000</v>
+        <v>1000800</v>
       </c>
       <c r="F23" s="3">
-        <v>-5020400</v>
+        <v>-4798800</v>
       </c>
       <c r="G23" s="3">
-        <v>9712100</v>
+        <v>9283300</v>
       </c>
       <c r="H23" s="3">
-        <v>15202000</v>
+        <v>14530900</v>
       </c>
       <c r="I23" s="3">
-        <v>19515800</v>
+        <v>18654200</v>
       </c>
       <c r="J23" s="3">
-        <v>20870300</v>
+        <v>19949000</v>
       </c>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>4069600</v>
+        <v>3889900</v>
       </c>
       <c r="E24" s="3">
-        <v>2272500</v>
+        <v>2172200</v>
       </c>
       <c r="F24" s="3">
-        <v>3664600</v>
+        <v>3502900</v>
       </c>
       <c r="G24" s="3">
-        <v>7589900</v>
+        <v>7254800</v>
       </c>
       <c r="H24" s="3">
-        <v>10628800</v>
+        <v>10159600</v>
       </c>
       <c r="I24" s="3">
-        <v>13708900</v>
+        <v>13103700</v>
       </c>
       <c r="J24" s="3">
-        <v>11624200</v>
+        <v>11111100</v>
       </c>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1147,61 +1182,61 @@
       </c>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3964000</v>
+        <v>3789000</v>
       </c>
       <c r="E26" s="3">
-        <v>-1225500</v>
+        <v>-1171400</v>
       </c>
       <c r="F26" s="3">
-        <v>-8685000</v>
+        <v>-8301600</v>
       </c>
       <c r="G26" s="3">
-        <v>2122200</v>
+        <v>2028600</v>
       </c>
       <c r="H26" s="3">
-        <v>4573200</v>
+        <v>4371300</v>
       </c>
       <c r="I26" s="3">
-        <v>5806800</v>
+        <v>5550500</v>
       </c>
       <c r="J26" s="3">
-        <v>9246100</v>
+        <v>8837900</v>
       </c>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3960400</v>
+        <v>3785600</v>
       </c>
       <c r="E27" s="3">
-        <v>-1233700</v>
+        <v>-1179200</v>
       </c>
       <c r="F27" s="3">
-        <v>-9334100</v>
+        <v>-8922100</v>
       </c>
       <c r="G27" s="3">
-        <v>2019000</v>
+        <v>1929800</v>
       </c>
       <c r="H27" s="3">
-        <v>4075500</v>
+        <v>3895500</v>
       </c>
       <c r="I27" s="3">
-        <v>4930000</v>
+        <v>4712400</v>
       </c>
       <c r="J27" s="3">
-        <v>8101600</v>
+        <v>7744000</v>
       </c>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1228,7 +1263,7 @@
       </c>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1236,26 +1271,26 @@
         <v>8</v>
       </c>
       <c r="E29" s="3">
-        <v>-484800</v>
+        <v>-463400</v>
       </c>
       <c r="F29" s="3">
-        <v>-969600</v>
+        <v>-926800</v>
       </c>
       <c r="G29" s="3">
-        <v>-489500</v>
+        <v>-467900</v>
       </c>
       <c r="H29" s="3">
-        <v>1981400</v>
+        <v>1893900</v>
       </c>
       <c r="I29" s="3">
-        <v>8594600</v>
+        <v>8215200</v>
       </c>
       <c r="J29" s="3">
-        <v>-49300</v>
+        <v>-47100</v>
       </c>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1282,7 +1317,7 @@
       </c>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1309,61 +1344,61 @@
       </c>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>639700</v>
+        <v>611500</v>
       </c>
       <c r="E32" s="3">
-        <v>365100</v>
+        <v>348900</v>
       </c>
       <c r="F32" s="3">
-        <v>561100</v>
+        <v>536300</v>
       </c>
       <c r="G32" s="3">
-        <v>-23500</v>
+        <v>-22400</v>
       </c>
       <c r="H32" s="3">
-        <v>-2785500</v>
+        <v>-2662500</v>
       </c>
       <c r="I32" s="3">
-        <v>-12124300</v>
+        <v>-11589000</v>
       </c>
       <c r="J32" s="3">
-        <v>-9844700</v>
+        <v>-9410100</v>
       </c>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3960400</v>
+        <v>3785600</v>
       </c>
       <c r="E33" s="3">
-        <v>-1718500</v>
+        <v>-1642600</v>
       </c>
       <c r="F33" s="3">
-        <v>-10303700</v>
+        <v>-9848800</v>
       </c>
       <c r="G33" s="3">
-        <v>1529500</v>
+        <v>1462000</v>
       </c>
       <c r="H33" s="3">
-        <v>6056900</v>
+        <v>5789500</v>
       </c>
       <c r="I33" s="3">
-        <v>13524600</v>
+        <v>12927600</v>
       </c>
       <c r="J33" s="3">
-        <v>8052300</v>
+        <v>7696900</v>
       </c>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1390,39 +1425,39 @@
       </c>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3960400</v>
+        <v>3785600</v>
       </c>
       <c r="E35" s="3">
-        <v>-1718500</v>
+        <v>-1642600</v>
       </c>
       <c r="F35" s="3">
-        <v>-10303700</v>
+        <v>-9848800</v>
       </c>
       <c r="G35" s="3">
-        <v>1529500</v>
+        <v>1462000</v>
       </c>
       <c r="H35" s="3">
-        <v>6056900</v>
+        <v>5789500</v>
       </c>
       <c r="I35" s="3">
-        <v>13524600</v>
+        <v>12927600</v>
       </c>
       <c r="J35" s="3">
-        <v>8052300</v>
+        <v>7696900</v>
       </c>
       <c r="K35" s="3"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1449,7 +1484,7 @@
       </c>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1462,7 +1497,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1475,250 +1510,250 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8642800</v>
+        <v>8261200</v>
       </c>
       <c r="E41" s="3">
-        <v>6660200</v>
+        <v>6366200</v>
       </c>
       <c r="F41" s="3">
-        <v>6114400</v>
+        <v>5844400</v>
       </c>
       <c r="G41" s="3">
-        <v>7763600</v>
+        <v>7420800</v>
       </c>
       <c r="H41" s="3">
-        <v>6375000</v>
+        <v>6093500</v>
       </c>
       <c r="I41" s="3">
-        <v>9315400</v>
+        <v>8904100</v>
       </c>
       <c r="J41" s="3">
-        <v>1760700</v>
+        <v>1683000</v>
       </c>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>7299900</v>
+        <v>6977700</v>
       </c>
       <c r="E42" s="3">
-        <v>7517100</v>
+        <v>7185200</v>
       </c>
       <c r="F42" s="3">
-        <v>6232900</v>
+        <v>5957800</v>
       </c>
       <c r="G42" s="3">
-        <v>6500600</v>
+        <v>6213600</v>
       </c>
       <c r="H42" s="3">
-        <v>6149600</v>
+        <v>5878100</v>
       </c>
       <c r="I42" s="3">
-        <v>278200</v>
+        <v>265900</v>
       </c>
       <c r="J42" s="3">
-        <v>307500</v>
+        <v>294000</v>
       </c>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>19552200</v>
+        <v>18689000</v>
       </c>
       <c r="E43" s="3">
-        <v>21909200</v>
+        <v>20941900</v>
       </c>
       <c r="F43" s="3">
-        <v>51154600</v>
+        <v>48896300</v>
       </c>
       <c r="G43" s="3">
-        <v>35885700</v>
+        <v>34301500</v>
       </c>
       <c r="H43" s="3">
-        <v>103518000</v>
+        <v>98948300</v>
       </c>
       <c r="I43" s="3">
-        <v>46110800</v>
+        <v>44075100</v>
       </c>
       <c r="J43" s="3">
-        <v>28869900</v>
+        <v>27595300</v>
       </c>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5424200</v>
+        <v>5184700</v>
       </c>
       <c r="E44" s="3">
-        <v>5443000</v>
+        <v>5202700</v>
       </c>
       <c r="F44" s="3">
-        <v>9964500</v>
+        <v>9524600</v>
       </c>
       <c r="G44" s="3">
-        <v>17736300</v>
+        <v>16953300</v>
       </c>
       <c r="H44" s="3">
-        <v>20547500</v>
+        <v>19640400</v>
       </c>
       <c r="I44" s="3">
-        <v>28238300</v>
+        <v>26991700</v>
       </c>
       <c r="J44" s="3">
-        <v>8891600</v>
+        <v>8499100</v>
       </c>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1846400</v>
+        <v>1764900</v>
       </c>
       <c r="E45" s="3">
-        <v>3041300</v>
+        <v>2907100</v>
       </c>
       <c r="F45" s="3">
-        <v>9038300</v>
+        <v>8639300</v>
       </c>
       <c r="G45" s="3">
-        <v>10294300</v>
+        <v>9839900</v>
       </c>
       <c r="H45" s="3">
-        <v>3944000</v>
+        <v>3769900</v>
       </c>
       <c r="I45" s="3">
-        <v>6144900</v>
+        <v>5873600</v>
       </c>
       <c r="J45" s="3">
-        <v>5004000</v>
+        <v>4783000</v>
       </c>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>42765400</v>
+        <v>40877500</v>
       </c>
       <c r="E46" s="3">
-        <v>44570700</v>
+        <v>42603100</v>
       </c>
       <c r="F46" s="3">
-        <v>48560500</v>
+        <v>46416700</v>
       </c>
       <c r="G46" s="3">
-        <v>63863500</v>
+        <v>61044100</v>
       </c>
       <c r="H46" s="3">
-        <v>59231600</v>
+        <v>56616700</v>
       </c>
       <c r="I46" s="3">
-        <v>57512000</v>
+        <v>54973000</v>
       </c>
       <c r="J46" s="3">
-        <v>44833700</v>
+        <v>42854400</v>
       </c>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7223600</v>
+        <v>6904700</v>
       </c>
       <c r="E47" s="3">
-        <v>8287100</v>
+        <v>7921200</v>
       </c>
       <c r="F47" s="3">
-        <v>7735400</v>
+        <v>7393900</v>
       </c>
       <c r="G47" s="3">
-        <v>9903400</v>
+        <v>9466200</v>
       </c>
       <c r="H47" s="3">
-        <v>11119500</v>
+        <v>10628600</v>
       </c>
       <c r="I47" s="3">
-        <v>18412400</v>
+        <v>17599500</v>
       </c>
       <c r="J47" s="3">
-        <v>12286300</v>
+        <v>11743900</v>
       </c>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>74135500</v>
+        <v>70862600</v>
       </c>
       <c r="E48" s="3">
-        <v>83097500</v>
+        <v>79429000</v>
       </c>
       <c r="F48" s="3">
-        <v>159271000</v>
+        <v>152240000</v>
       </c>
       <c r="G48" s="3">
-        <v>173669000</v>
+        <v>166002000</v>
       </c>
       <c r="H48" s="3">
-        <v>224537000</v>
+        <v>214624000</v>
       </c>
       <c r="I48" s="3">
-        <v>61042800</v>
+        <v>58348000</v>
       </c>
       <c r="J48" s="3">
-        <v>86366600</v>
+        <v>82553800</v>
       </c>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3433400</v>
+        <v>3281800</v>
       </c>
       <c r="E49" s="3">
-        <v>3837200</v>
+        <v>3667800</v>
       </c>
       <c r="F49" s="3">
-        <v>7280000</v>
+        <v>6958600</v>
       </c>
       <c r="G49" s="3">
-        <v>9466800</v>
+        <v>9048800</v>
       </c>
       <c r="H49" s="3">
-        <v>11130100</v>
+        <v>10638700</v>
       </c>
       <c r="I49" s="3">
-        <v>12911900</v>
+        <v>12341900</v>
       </c>
       <c r="J49" s="3">
-        <v>12853200</v>
+        <v>12285800</v>
       </c>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1745,7 +1780,7 @@
       </c>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1772,34 +1807,34 @@
       </c>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7345700</v>
+        <v>7021400</v>
       </c>
       <c r="E52" s="3">
-        <v>6399600</v>
+        <v>6117100</v>
       </c>
       <c r="F52" s="3">
-        <v>26510500</v>
+        <v>25340100</v>
       </c>
       <c r="G52" s="3">
-        <v>11601900</v>
+        <v>11089700</v>
       </c>
       <c r="H52" s="3">
-        <v>17961600</v>
+        <v>17168700</v>
       </c>
       <c r="I52" s="3">
-        <v>19076800</v>
+        <v>18234600</v>
       </c>
       <c r="J52" s="3">
-        <v>11450500</v>
+        <v>10945000</v>
       </c>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1826,34 +1861,34 @@
       </c>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>134904000</v>
+        <v>128948000</v>
       </c>
       <c r="E54" s="3">
-        <v>146192000</v>
+        <v>139738000</v>
       </c>
       <c r="F54" s="3">
-        <v>163161000</v>
+        <v>155958000</v>
       </c>
       <c r="G54" s="3">
-        <v>176501000</v>
+        <v>168709000</v>
       </c>
       <c r="H54" s="3">
-        <v>162386000</v>
+        <v>155217000</v>
       </c>
       <c r="I54" s="3">
-        <v>164559000</v>
+        <v>157294000</v>
       </c>
       <c r="J54" s="3">
-        <v>167790000</v>
+        <v>160383000</v>
       </c>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1866,7 +1901,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,169 +1914,169 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>12782800</v>
+        <v>12218500</v>
       </c>
       <c r="E57" s="3">
-        <v>12956500</v>
+        <v>12384500</v>
       </c>
       <c r="F57" s="3">
-        <v>28429700</v>
+        <v>27174600</v>
       </c>
       <c r="G57" s="3">
-        <v>45447600</v>
+        <v>43441200</v>
       </c>
       <c r="H57" s="3">
-        <v>64405800</v>
+        <v>61562500</v>
       </c>
       <c r="I57" s="3">
-        <v>63046500</v>
+        <v>60263200</v>
       </c>
       <c r="J57" s="3">
-        <v>15771300</v>
+        <v>15075100</v>
       </c>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5315000</v>
+        <v>5080400</v>
       </c>
       <c r="E58" s="3">
-        <v>7835200</v>
+        <v>7489300</v>
       </c>
       <c r="F58" s="3">
-        <v>16560100</v>
+        <v>15829000</v>
       </c>
       <c r="G58" s="3">
-        <v>10905900</v>
+        <v>10424400</v>
       </c>
       <c r="H58" s="3">
-        <v>13995300</v>
+        <v>13377500</v>
       </c>
       <c r="I58" s="3">
-        <v>14457800</v>
+        <v>13819600</v>
       </c>
       <c r="J58" s="3">
-        <v>7623900</v>
+        <v>7287300</v>
       </c>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>10936400</v>
+        <v>10453600</v>
       </c>
       <c r="E59" s="3">
-        <v>11718100</v>
+        <v>11200800</v>
       </c>
       <c r="F59" s="3">
-        <v>19528700</v>
+        <v>18666500</v>
       </c>
       <c r="G59" s="3">
-        <v>23561900</v>
+        <v>22521700</v>
       </c>
       <c r="H59" s="3">
-        <v>30638800</v>
+        <v>29286200</v>
       </c>
       <c r="I59" s="3">
-        <v>29823000</v>
+        <v>28506400</v>
       </c>
       <c r="J59" s="3">
-        <v>18430000</v>
+        <v>17616400</v>
       </c>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>29034200</v>
+        <v>27752400</v>
       </c>
       <c r="E60" s="3">
-        <v>32509800</v>
+        <v>31074600</v>
       </c>
       <c r="F60" s="3">
-        <v>35138000</v>
+        <v>33586800</v>
       </c>
       <c r="G60" s="3">
-        <v>43635200</v>
+        <v>41708900</v>
       </c>
       <c r="H60" s="3">
-        <v>38582000</v>
+        <v>36878700</v>
       </c>
       <c r="I60" s="3">
-        <v>39853200</v>
+        <v>38093800</v>
       </c>
       <c r="J60" s="3">
-        <v>41825200</v>
+        <v>39978700</v>
       </c>
       <c r="K60" s="3"/>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>23686300</v>
+        <v>22640600</v>
       </c>
       <c r="E61" s="3">
-        <v>24138200</v>
+        <v>23072600</v>
       </c>
       <c r="F61" s="3">
-        <v>22768400</v>
+        <v>21763200</v>
       </c>
       <c r="G61" s="3">
-        <v>22673300</v>
+        <v>21672400</v>
       </c>
       <c r="H61" s="3">
-        <v>24503300</v>
+        <v>23421500</v>
       </c>
       <c r="I61" s="3">
-        <v>22472600</v>
+        <v>21480500</v>
       </c>
       <c r="J61" s="3">
-        <v>27117400</v>
+        <v>25920200</v>
       </c>
       <c r="K61" s="3"/>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>25645400</v>
+        <v>24513200</v>
       </c>
       <c r="E62" s="3">
-        <v>27231200</v>
+        <v>26029000</v>
       </c>
       <c r="F62" s="3">
-        <v>51565500</v>
+        <v>49289000</v>
       </c>
       <c r="G62" s="3">
-        <v>35631000</v>
+        <v>34058000</v>
       </c>
       <c r="H62" s="3">
-        <v>47758800</v>
+        <v>45650400</v>
       </c>
       <c r="I62" s="3">
-        <v>32016800</v>
+        <v>30603400</v>
       </c>
       <c r="J62" s="3">
-        <v>27957800</v>
+        <v>26723600</v>
       </c>
       <c r="K62" s="3"/>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2068,7 +2103,7 @@
       </c>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2095,7 +2130,7 @@
       </c>
       <c r="K64" s="3"/>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2122,34 +2157,34 @@
       </c>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>78525500</v>
+        <v>75058900</v>
       </c>
       <c r="E66" s="3">
-        <v>83936800</v>
+        <v>80231300</v>
       </c>
       <c r="F66" s="3">
-        <v>98022500</v>
+        <v>93695100</v>
       </c>
       <c r="G66" s="3">
-        <v>102333000</v>
+        <v>97815100</v>
       </c>
       <c r="H66" s="3">
-        <v>94058600</v>
+        <v>89906200</v>
       </c>
       <c r="I66" s="3">
-        <v>95233600</v>
+        <v>91029300</v>
       </c>
       <c r="J66" s="3">
-        <v>102677000</v>
+        <v>98143800</v>
       </c>
       <c r="K66" s="3"/>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2162,7 +2197,7 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2189,7 +2224,7 @@
       </c>
       <c r="K68" s="3"/>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2216,7 +2251,7 @@
       </c>
       <c r="K69" s="3"/>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2243,7 +2278,7 @@
       </c>
       <c r="K70" s="3"/>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2270,34 +2305,34 @@
       </c>
       <c r="K71" s="3"/>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>45940600</v>
+        <v>43912400</v>
       </c>
       <c r="E72" s="3">
-        <v>45346600</v>
+        <v>43344700</v>
       </c>
       <c r="F72" s="3">
-        <v>124033000</v>
+        <v>118557000</v>
       </c>
       <c r="G72" s="3">
-        <v>183522000</v>
+        <v>175420000</v>
       </c>
       <c r="H72" s="3">
-        <v>170281000</v>
+        <v>162764000</v>
       </c>
       <c r="I72" s="3">
-        <v>114459000</v>
+        <v>109406000</v>
       </c>
       <c r="J72" s="3">
-        <v>68281700</v>
+        <v>65267300</v>
       </c>
       <c r="K72" s="3"/>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2324,7 +2359,7 @@
       </c>
       <c r="K73" s="3"/>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2351,7 +2386,7 @@
       </c>
       <c r="K74" s="3"/>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2378,34 +2413,34 @@
       </c>
       <c r="K75" s="3"/>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>56378100</v>
+        <v>53889200</v>
       </c>
       <c r="E76" s="3">
-        <v>62255400</v>
+        <v>59507000</v>
       </c>
       <c r="F76" s="3">
-        <v>65138200</v>
+        <v>62262600</v>
       </c>
       <c r="G76" s="3">
-        <v>74168400</v>
+        <v>70894100</v>
       </c>
       <c r="H76" s="3">
-        <v>68327500</v>
+        <v>65311000</v>
       </c>
       <c r="I76" s="3">
-        <v>69325200</v>
+        <v>66264700</v>
       </c>
       <c r="J76" s="3">
-        <v>65113600</v>
+        <v>62239000</v>
       </c>
       <c r="K76" s="3"/>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2432,12 +2467,12 @@
       </c>
       <c r="K77" s="3"/>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2464,34 +2499,34 @@
       </c>
       <c r="K80" s="2"/>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3960400</v>
+        <v>3785600</v>
       </c>
       <c r="E81" s="3">
-        <v>-1718500</v>
+        <v>-1642600</v>
       </c>
       <c r="F81" s="3">
-        <v>-10303700</v>
+        <v>-9848800</v>
       </c>
       <c r="G81" s="3">
-        <v>1529500</v>
+        <v>1462000</v>
       </c>
       <c r="H81" s="3">
-        <v>6056900</v>
+        <v>5789500</v>
       </c>
       <c r="I81" s="3">
-        <v>13524600</v>
+        <v>12927600</v>
       </c>
       <c r="J81" s="3">
-        <v>8052300</v>
+        <v>7696900</v>
       </c>
       <c r="K81" s="3"/>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,34 +2539,34 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
     </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>8783600</v>
+        <v>8395900</v>
       </c>
       <c r="E83" s="3">
-        <v>8872800</v>
+        <v>8481100</v>
       </c>
       <c r="F83" s="3">
-        <v>10493900</v>
+        <v>10030600</v>
       </c>
       <c r="G83" s="3">
-        <v>9010200</v>
+        <v>8612400</v>
       </c>
       <c r="H83" s="3">
-        <v>10100600</v>
+        <v>9654700</v>
       </c>
       <c r="I83" s="3">
-        <v>11321400</v>
-      </c>
-      <c r="J83" s="3">
-        <v>9102900</v>
+        <v>10821600</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3"/>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2558,7 +2593,7 @@
       </c>
       <c r="K84" s="3"/>
     </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2585,7 +2620,7 @@
       </c>
       <c r="K85" s="3"/>
     </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2612,7 +2647,7 @@
       </c>
       <c r="K86" s="3"/>
     </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2639,7 +2674,7 @@
       </c>
       <c r="K87" s="3"/>
     </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2666,34 +2701,34 @@
       </c>
       <c r="K88" s="3"/>
     </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>11883700</v>
+        <v>11359000</v>
       </c>
       <c r="E89" s="3">
-        <v>10044300</v>
+        <v>9600900</v>
       </c>
       <c r="F89" s="3">
-        <v>12614900</v>
+        <v>12058000</v>
       </c>
       <c r="G89" s="3">
-        <v>17306700</v>
+        <v>16542600</v>
       </c>
       <c r="H89" s="3">
-        <v>12944800</v>
+        <v>12373300</v>
       </c>
       <c r="I89" s="3">
-        <v>14746600</v>
+        <v>14095600</v>
       </c>
       <c r="J89" s="3">
-        <v>16881700</v>
+        <v>16136500</v>
       </c>
       <c r="K89" s="3"/>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2706,34 +2741,34 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-10189800</v>
+        <v>-9525700</v>
       </c>
       <c r="E91" s="3">
-        <v>-10775600</v>
+        <v>-10173100</v>
       </c>
       <c r="F91" s="3">
-        <v>-13266400</v>
+        <v>-12540500</v>
       </c>
       <c r="G91" s="3">
-        <v>-13935500</v>
+        <v>-13066700</v>
       </c>
       <c r="H91" s="3">
-        <v>-15024800</v>
+        <v>-12244300</v>
       </c>
       <c r="I91" s="3">
-        <v>-15918000</v>
+        <v>-12641500</v>
       </c>
       <c r="J91" s="3">
-        <v>-15773700</v>
+        <v>-13080200</v>
       </c>
       <c r="K91" s="3"/>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2760,7 +2795,7 @@
       </c>
       <c r="K92" s="3"/>
     </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2787,34 +2822,34 @@
       </c>
       <c r="K93" s="3"/>
     </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4422900</v>
+        <v>-4227700</v>
       </c>
       <c r="E94" s="3">
-        <v>-5215200</v>
+        <v>-4985000</v>
       </c>
       <c r="F94" s="3">
-        <v>-12821500</v>
+        <v>-12255500</v>
       </c>
       <c r="G94" s="3">
-        <v>-10065400</v>
+        <v>-9621100</v>
       </c>
       <c r="H94" s="3">
-        <v>-12889600</v>
+        <v>-12320600</v>
       </c>
       <c r="I94" s="3">
-        <v>-9833000</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-13167800</v>
+        <v>-9398900</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3"/>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,34 +2862,34 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
     </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3380600</v>
+        <v>-3231300</v>
       </c>
       <c r="E96" s="3">
-        <v>-3381700</v>
+        <v>-3232500</v>
       </c>
       <c r="F96" s="3">
-        <v>-4057900</v>
+        <v>-3878700</v>
       </c>
       <c r="G96" s="3">
-        <v>-4702300</v>
+        <v>-4494700</v>
       </c>
       <c r="H96" s="3">
-        <v>-4635400</v>
+        <v>-4430700</v>
       </c>
       <c r="I96" s="3">
-        <v>-4507400</v>
+        <v>-4308400</v>
       </c>
       <c r="J96" s="3">
-        <v>-4337200</v>
+        <v>-4145800</v>
       </c>
       <c r="K96" s="3"/>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2881,7 +2916,7 @@
       </c>
       <c r="K97" s="3"/>
     </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2908,7 +2943,7 @@
       </c>
       <c r="K98" s="3"/>
     </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2935,84 +2970,84 @@
       </c>
       <c r="K99" s="3"/>
     </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-5393700</v>
+        <v>-5155500</v>
       </c>
       <c r="E100" s="3">
-        <v>-4285600</v>
+        <v>-4096400</v>
       </c>
       <c r="F100" s="3">
-        <v>-1585800</v>
+        <v>-1515800</v>
       </c>
       <c r="G100" s="3">
-        <v>-5941800</v>
+        <v>-5679500</v>
       </c>
       <c r="H100" s="3">
-        <v>-2946300</v>
+        <v>-2816200</v>
       </c>
       <c r="I100" s="3">
-        <v>2431000</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-3783200</v>
+        <v>2323600</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3"/>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-84500</v>
+        <v>-80800</v>
       </c>
       <c r="E101" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="F101" s="3">
-        <v>143200</v>
+        <v>136900</v>
       </c>
       <c r="G101" s="3">
-        <v>89200</v>
+        <v>85300</v>
       </c>
       <c r="H101" s="3">
-        <v>-49300</v>
+        <v>-47100</v>
       </c>
       <c r="I101" s="3">
-        <v>-14100</v>
-      </c>
-      <c r="J101" s="3">
-        <v>11700</v>
+        <v>-13500</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3"/>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1982600</v>
+        <v>1895000</v>
       </c>
       <c r="E102" s="3">
-        <v>545800</v>
+        <v>521700</v>
       </c>
       <c r="F102" s="3">
-        <v>-1649200</v>
+        <v>-1576400</v>
       </c>
       <c r="G102" s="3">
-        <v>1388600</v>
+        <v>1327300</v>
       </c>
       <c r="H102" s="3">
-        <v>-2940400</v>
+        <v>-2810600</v>
       </c>
       <c r="I102" s="3">
-        <v>7330400</v>
+        <v>7006800</v>
       </c>
       <c r="J102" s="3">
-        <v>-57500</v>
+        <v>-55000</v>
       </c>
       <c r="K102" s="3"/>
     </row>

--- a/Financials/Yearly/E_YR_FIN.xlsx
+++ b/Financials/Yearly/E_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09E79B2-BC79-4777-8BCB-B25373A60D3F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="E" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>E</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,140 +654,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="2.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
         <v>43100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42735</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42369</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42004</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41639</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41274</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40908</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>75082400</v>
+        <v>83252600</v>
       </c>
       <c r="E8" s="3">
-        <v>62564400</v>
+        <v>73477100</v>
       </c>
       <c r="F8" s="3">
-        <v>81104200</v>
+        <v>61226700</v>
       </c>
       <c r="G8" s="3">
-        <v>110199600</v>
+        <v>79370000</v>
       </c>
       <c r="H8" s="3">
-        <v>110568700</v>
+        <v>107843400</v>
       </c>
       <c r="I8" s="3">
-        <v>142615000</v>
+        <v>108204600</v>
       </c>
       <c r="J8" s="3">
+        <v>139565700</v>
+      </c>
+      <c r="K8" s="3">
         <v>121866100</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>41773900</v>
+        <v>45675700</v>
       </c>
       <c r="E9" s="3">
-        <v>32093400</v>
+        <v>40880700</v>
       </c>
       <c r="F9" s="3">
-        <v>115837600</v>
+        <v>31407200</v>
       </c>
       <c r="G9" s="3">
-        <v>70123300</v>
+        <v>113360800</v>
       </c>
       <c r="H9" s="3">
-        <v>172319700</v>
+        <v>68623900</v>
       </c>
       <c r="I9" s="3">
-        <v>193636400</v>
+        <v>168635200</v>
       </c>
       <c r="J9" s="3">
+        <v>189496100</v>
+      </c>
+      <c r="K9" s="3">
         <v>88329800</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>33308500</v>
+        <v>37576900</v>
       </c>
       <c r="E10" s="3">
-        <v>30471000</v>
+        <v>32596300</v>
       </c>
       <c r="F10" s="3">
-        <v>-34733400</v>
+        <v>29819500</v>
       </c>
       <c r="G10" s="3">
-        <v>40076400</v>
+        <v>-33990800</v>
       </c>
       <c r="H10" s="3">
-        <v>-61751000</v>
+        <v>39219500</v>
       </c>
       <c r="I10" s="3">
-        <v>-51021400</v>
+        <v>-60430600</v>
       </c>
       <c r="J10" s="3">
+        <v>-49930500</v>
+      </c>
+      <c r="K10" s="3">
         <v>33536300</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -834,8 +811,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -860,9 +838,12 @@
       <c r="J12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -887,63 +868,72 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-101000</v>
+        <v>1036500</v>
       </c>
       <c r="E14" s="3">
-        <v>80800</v>
+        <v>-98800</v>
       </c>
       <c r="F14" s="3">
-        <v>14355900</v>
+        <v>79100</v>
       </c>
       <c r="G14" s="3">
-        <v>4307300</v>
+        <v>14048900</v>
       </c>
       <c r="H14" s="3">
-        <v>1549500</v>
+        <v>4215200</v>
       </c>
       <c r="I14" s="3">
-        <v>5195900</v>
+        <v>1516300</v>
       </c>
       <c r="J14" s="3">
+        <v>5084800</v>
+      </c>
+      <c r="K14" s="3">
         <v>1249900</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>8398100</v>
+        <v>7675000</v>
       </c>
       <c r="E15" s="3">
-        <v>8483400</v>
+        <v>8218500</v>
       </c>
       <c r="F15" s="3">
-        <v>21467000</v>
+        <v>8302000</v>
       </c>
       <c r="G15" s="3">
-        <v>8619100</v>
+        <v>21008000</v>
       </c>
       <c r="H15" s="3">
-        <v>20150900</v>
+        <v>8434800</v>
       </c>
       <c r="I15" s="3">
-        <v>21528700</v>
+        <v>19720100</v>
       </c>
       <c r="J15" s="3">
+        <v>21068400</v>
+      </c>
+      <c r="K15" s="3">
         <v>15697800</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -952,62 +942,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>65949500</v>
+        <v>72267100</v>
       </c>
       <c r="E17" s="3">
-        <v>60365300</v>
+        <v>64539300</v>
       </c>
       <c r="F17" s="3">
-        <v>84426400</v>
+        <v>59074600</v>
       </c>
       <c r="G17" s="3">
-        <v>99961500</v>
+        <v>82621200</v>
       </c>
       <c r="H17" s="3">
-        <v>97705100</v>
+        <v>97824100</v>
       </c>
       <c r="I17" s="3">
-        <v>125160200</v>
+        <v>95616000</v>
       </c>
       <c r="J17" s="3">
+        <v>122484100</v>
+      </c>
+      <c r="K17" s="3">
         <v>103013300</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>9133000</v>
+        <v>10985500</v>
       </c>
       <c r="E18" s="3">
-        <v>2199100</v>
+        <v>8937700</v>
       </c>
       <c r="F18" s="3">
-        <v>-3322200</v>
+        <v>2152100</v>
       </c>
       <c r="G18" s="3">
-        <v>10238200</v>
+        <v>-3251200</v>
       </c>
       <c r="H18" s="3">
-        <v>12863600</v>
+        <v>10019300</v>
       </c>
       <c r="I18" s="3">
-        <v>17454800</v>
+        <v>12588600</v>
       </c>
       <c r="J18" s="3">
+        <v>17081600</v>
+      </c>
+      <c r="K18" s="3">
         <v>18852800</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1019,143 +1016,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-611500</v>
+        <v>864100</v>
       </c>
       <c r="E20" s="3">
-        <v>-348900</v>
+        <v>-598400</v>
       </c>
       <c r="F20" s="3">
-        <v>-536300</v>
+        <v>-341500</v>
       </c>
       <c r="G20" s="3">
-        <v>22400</v>
+        <v>-524800</v>
       </c>
       <c r="H20" s="3">
-        <v>2662500</v>
+        <v>22000</v>
       </c>
       <c r="I20" s="3">
-        <v>11589000</v>
+        <v>2605600</v>
       </c>
       <c r="J20" s="3">
+        <v>11341200</v>
+      </c>
+      <c r="K20" s="3">
         <v>9410100</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>16937600</v>
+        <v>19534300</v>
       </c>
       <c r="E21" s="3">
-        <v>10351700</v>
+        <v>16568400</v>
       </c>
       <c r="F21" s="3">
-        <v>6196200</v>
+        <v>10123200</v>
       </c>
       <c r="G21" s="3">
-        <v>18893700</v>
+        <v>6055300</v>
       </c>
       <c r="H21" s="3">
-        <v>25204100</v>
+        <v>18482500</v>
       </c>
       <c r="I21" s="3">
-        <v>39891500</v>
-      </c>
-      <c r="J21" s="3" t="s">
+        <v>24657000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>39029400</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>842600</v>
+        <v>752100</v>
       </c>
       <c r="E22" s="3">
-        <v>849300</v>
+        <v>824600</v>
       </c>
       <c r="F22" s="3">
-        <v>940200</v>
+        <v>831200</v>
       </c>
       <c r="G22" s="3">
-        <v>977300</v>
+        <v>920100</v>
       </c>
       <c r="H22" s="3">
-        <v>995200</v>
+        <v>956400</v>
       </c>
       <c r="I22" s="3">
-        <v>10389600</v>
+        <v>973900</v>
       </c>
       <c r="J22" s="3">
+        <v>10167500</v>
+      </c>
+      <c r="K22" s="3">
         <v>8313900</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>7678900</v>
+        <v>11097500</v>
       </c>
       <c r="E23" s="3">
-        <v>1000800</v>
+        <v>7514700</v>
       </c>
       <c r="F23" s="3">
-        <v>-4798800</v>
+        <v>979400</v>
       </c>
       <c r="G23" s="3">
-        <v>9283300</v>
+        <v>-4696100</v>
       </c>
       <c r="H23" s="3">
-        <v>14530900</v>
+        <v>9084900</v>
       </c>
       <c r="I23" s="3">
-        <v>18654200</v>
+        <v>14220200</v>
       </c>
       <c r="J23" s="3">
+        <v>18255300</v>
+      </c>
+      <c r="K23" s="3">
         <v>19949000</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3889900</v>
+        <v>6555100</v>
       </c>
       <c r="E24" s="3">
-        <v>2172200</v>
+        <v>3806800</v>
       </c>
       <c r="F24" s="3">
-        <v>3502900</v>
+        <v>2125700</v>
       </c>
       <c r="G24" s="3">
-        <v>7254800</v>
+        <v>3428000</v>
       </c>
       <c r="H24" s="3">
-        <v>10159600</v>
+        <v>7099700</v>
       </c>
       <c r="I24" s="3">
-        <v>13103700</v>
+        <v>9942400</v>
       </c>
       <c r="J24" s="3">
+        <v>12823500</v>
+      </c>
+      <c r="K24" s="3">
         <v>11111100</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1180,63 +1193,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3789000</v>
+        <v>4542400</v>
       </c>
       <c r="E26" s="3">
-        <v>-1171400</v>
+        <v>3707900</v>
       </c>
       <c r="F26" s="3">
-        <v>-8301600</v>
+        <v>-1146300</v>
       </c>
       <c r="G26" s="3">
-        <v>2028600</v>
+        <v>-8124100</v>
       </c>
       <c r="H26" s="3">
-        <v>4371300</v>
+        <v>1985200</v>
       </c>
       <c r="I26" s="3">
-        <v>5550500</v>
+        <v>4277800</v>
       </c>
       <c r="J26" s="3">
+        <v>5431800</v>
+      </c>
+      <c r="K26" s="3">
         <v>8837900</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3785600</v>
+        <v>4530300</v>
       </c>
       <c r="E27" s="3">
-        <v>-1179200</v>
+        <v>3704700</v>
       </c>
       <c r="F27" s="3">
-        <v>-8922100</v>
+        <v>-1154000</v>
       </c>
       <c r="G27" s="3">
-        <v>1929800</v>
+        <v>-8731300</v>
       </c>
       <c r="H27" s="3">
-        <v>3895500</v>
+        <v>1888600</v>
       </c>
       <c r="I27" s="3">
-        <v>4712400</v>
+        <v>3812300</v>
       </c>
       <c r="J27" s="3">
+        <v>4611600</v>
+      </c>
+      <c r="K27" s="3">
         <v>7744000</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1261,36 +1283,42 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>-463400</v>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F29" s="3">
-        <v>-926800</v>
+        <v>-453500</v>
       </c>
       <c r="G29" s="3">
-        <v>-467900</v>
+        <v>-906900</v>
       </c>
       <c r="H29" s="3">
-        <v>1893900</v>
+        <v>-457900</v>
       </c>
       <c r="I29" s="3">
-        <v>8215200</v>
+        <v>1853400</v>
       </c>
       <c r="J29" s="3">
+        <v>8039600</v>
+      </c>
+      <c r="K29" s="3">
         <v>-47100</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1315,9 +1343,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1342,63 +1373,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>611500</v>
+        <v>-864100</v>
       </c>
       <c r="E32" s="3">
-        <v>348900</v>
+        <v>598400</v>
       </c>
       <c r="F32" s="3">
-        <v>536300</v>
+        <v>341500</v>
       </c>
       <c r="G32" s="3">
-        <v>-22400</v>
+        <v>524800</v>
       </c>
       <c r="H32" s="3">
-        <v>-2662500</v>
+        <v>-22000</v>
       </c>
       <c r="I32" s="3">
-        <v>-11589000</v>
+        <v>-2605600</v>
       </c>
       <c r="J32" s="3">
+        <v>-11341200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-9410100</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3785600</v>
+        <v>4530300</v>
       </c>
       <c r="E33" s="3">
-        <v>-1642600</v>
+        <v>3704700</v>
       </c>
       <c r="F33" s="3">
-        <v>-9848800</v>
+        <v>-1607500</v>
       </c>
       <c r="G33" s="3">
-        <v>1462000</v>
+        <v>-9638200</v>
       </c>
       <c r="H33" s="3">
-        <v>5789500</v>
+        <v>1430700</v>
       </c>
       <c r="I33" s="3">
-        <v>12927600</v>
+        <v>5665700</v>
       </c>
       <c r="J33" s="3">
+        <v>12651200</v>
+      </c>
+      <c r="K33" s="3">
         <v>7696900</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1423,68 +1463,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3785600</v>
+        <v>4530300</v>
       </c>
       <c r="E35" s="3">
-        <v>-1642600</v>
+        <v>3704700</v>
       </c>
       <c r="F35" s="3">
-        <v>-9848800</v>
+        <v>-1607500</v>
       </c>
       <c r="G35" s="3">
-        <v>1462000</v>
+        <v>-9638200</v>
       </c>
       <c r="H35" s="3">
-        <v>5789500</v>
+        <v>1430700</v>
       </c>
       <c r="I35" s="3">
-        <v>12927600</v>
+        <v>5665700</v>
       </c>
       <c r="J35" s="3">
+        <v>12651200</v>
+      </c>
+      <c r="K35" s="3">
         <v>7696900</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
         <v>43100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42735</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42369</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42004</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41639</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41274</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40908</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1496,8 +1545,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1509,251 +1559,279 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8261200</v>
+        <v>11897900</v>
       </c>
       <c r="E41" s="3">
-        <v>6366200</v>
+        <v>8084600</v>
       </c>
       <c r="F41" s="3">
-        <v>5844400</v>
+        <v>6230100</v>
       </c>
       <c r="G41" s="3">
-        <v>7420800</v>
+        <v>5719500</v>
       </c>
       <c r="H41" s="3">
-        <v>6093500</v>
+        <v>7262200</v>
       </c>
       <c r="I41" s="3">
-        <v>8904100</v>
+        <v>5963200</v>
       </c>
       <c r="J41" s="3">
+        <v>8713700</v>
+      </c>
+      <c r="K41" s="3">
         <v>1683000</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>6977700</v>
+        <v>7194100</v>
       </c>
       <c r="E42" s="3">
-        <v>7185200</v>
+        <v>6828500</v>
       </c>
       <c r="F42" s="3">
-        <v>5957800</v>
+        <v>7031600</v>
       </c>
       <c r="G42" s="3">
-        <v>6213600</v>
+        <v>5830400</v>
       </c>
       <c r="H42" s="3">
-        <v>5878100</v>
+        <v>6080700</v>
       </c>
       <c r="I42" s="3">
-        <v>265900</v>
+        <v>5752400</v>
       </c>
       <c r="J42" s="3">
+        <v>260200</v>
+      </c>
+      <c r="K42" s="3">
         <v>294000</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>18689000</v>
+        <v>16638000</v>
       </c>
       <c r="E43" s="3">
-        <v>20941900</v>
+        <v>35568600</v>
       </c>
       <c r="F43" s="3">
-        <v>48896300</v>
+        <v>20494200</v>
       </c>
       <c r="G43" s="3">
-        <v>34301500</v>
+        <v>47850800</v>
       </c>
       <c r="H43" s="3">
-        <v>98948300</v>
+        <v>33568100</v>
       </c>
       <c r="I43" s="3">
-        <v>44075100</v>
+        <v>96832600</v>
       </c>
       <c r="J43" s="3">
+        <v>43132700</v>
+      </c>
+      <c r="K43" s="3">
         <v>27595300</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5184700</v>
+        <v>5106800</v>
       </c>
       <c r="E44" s="3">
-        <v>5202700</v>
+        <v>5228700</v>
       </c>
       <c r="F44" s="3">
-        <v>9524600</v>
+        <v>5091400</v>
       </c>
       <c r="G44" s="3">
-        <v>16953300</v>
+        <v>9320900</v>
       </c>
       <c r="H44" s="3">
-        <v>19640400</v>
+        <v>16590800</v>
       </c>
       <c r="I44" s="3">
-        <v>26991700</v>
+        <v>19220500</v>
       </c>
       <c r="J44" s="3">
+        <v>26414600</v>
+      </c>
+      <c r="K44" s="3">
         <v>8499100</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1764900</v>
+        <v>2479300</v>
       </c>
       <c r="E45" s="3">
-        <v>2907100</v>
+        <v>1727200</v>
       </c>
       <c r="F45" s="3">
-        <v>8639300</v>
+        <v>2844900</v>
       </c>
       <c r="G45" s="3">
-        <v>9839900</v>
+        <v>8454600</v>
       </c>
       <c r="H45" s="3">
-        <v>3769900</v>
+        <v>9629500</v>
       </c>
       <c r="I45" s="3">
-        <v>5873600</v>
+        <v>3689300</v>
       </c>
       <c r="J45" s="3">
+        <v>5748000</v>
+      </c>
+      <c r="K45" s="3">
         <v>4783000</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>40877500</v>
+        <v>43316100</v>
       </c>
       <c r="E46" s="3">
-        <v>42603100</v>
+        <v>40003400</v>
       </c>
       <c r="F46" s="3">
-        <v>46416700</v>
+        <v>41692200</v>
       </c>
       <c r="G46" s="3">
-        <v>61044100</v>
+        <v>45424300</v>
       </c>
       <c r="H46" s="3">
-        <v>56616700</v>
+        <v>59738900</v>
       </c>
       <c r="I46" s="3">
-        <v>54973000</v>
+        <v>55406200</v>
       </c>
       <c r="J46" s="3">
+        <v>53797600</v>
+      </c>
+      <c r="K46" s="3">
         <v>42854400</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6904700</v>
+        <v>10988800</v>
       </c>
       <c r="E47" s="3">
-        <v>7921200</v>
+        <v>7944000</v>
       </c>
       <c r="F47" s="3">
-        <v>7393900</v>
+        <v>7751900</v>
       </c>
       <c r="G47" s="3">
-        <v>9466200</v>
+        <v>7235800</v>
       </c>
       <c r="H47" s="3">
-        <v>10628600</v>
+        <v>9263800</v>
       </c>
       <c r="I47" s="3">
-        <v>17599500</v>
+        <v>10401400</v>
       </c>
       <c r="J47" s="3">
+        <v>17223200</v>
+      </c>
+      <c r="K47" s="3">
         <v>11743900</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>70862600</v>
+        <v>66211600</v>
       </c>
       <c r="E48" s="3">
-        <v>79429000</v>
+        <v>125028000</v>
       </c>
       <c r="F48" s="3">
-        <v>152240000</v>
+        <v>77730700</v>
       </c>
       <c r="G48" s="3">
-        <v>166002000</v>
+        <v>148984000</v>
       </c>
       <c r="H48" s="3">
-        <v>214624000</v>
+        <v>162452000</v>
       </c>
       <c r="I48" s="3">
-        <v>58348000</v>
+        <v>210035000</v>
       </c>
       <c r="J48" s="3">
+        <v>57100400</v>
+      </c>
+      <c r="K48" s="3">
         <v>82553800</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3281800</v>
+        <v>3480700</v>
       </c>
       <c r="E49" s="3">
-        <v>3667800</v>
+        <v>3591600</v>
       </c>
       <c r="F49" s="3">
-        <v>6958600</v>
+        <v>3589400</v>
       </c>
       <c r="G49" s="3">
-        <v>9048800</v>
+        <v>6809800</v>
       </c>
       <c r="H49" s="3">
-        <v>10638700</v>
+        <v>8855400</v>
       </c>
       <c r="I49" s="3">
-        <v>12341900</v>
+        <v>10411200</v>
       </c>
       <c r="J49" s="3">
+        <v>12078000</v>
+      </c>
+      <c r="K49" s="3">
         <v>12285800</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1778,9 +1856,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1805,36 +1886,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7021400</v>
+        <v>5976400</v>
       </c>
       <c r="E52" s="3">
-        <v>6117100</v>
+        <v>6871300</v>
       </c>
       <c r="F52" s="3">
-        <v>25340100</v>
+        <v>5986300</v>
       </c>
       <c r="G52" s="3">
-        <v>11089700</v>
+        <v>24798300</v>
       </c>
       <c r="H52" s="3">
-        <v>17168700</v>
+        <v>10852600</v>
       </c>
       <c r="I52" s="3">
-        <v>18234600</v>
+        <v>16801600</v>
       </c>
       <c r="J52" s="3">
+        <v>17844700</v>
+      </c>
+      <c r="K52" s="3">
         <v>10945000</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1859,36 +1946,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>128948000</v>
+        <v>129974000</v>
       </c>
       <c r="E54" s="3">
-        <v>139738000</v>
+        <v>126191000</v>
       </c>
       <c r="F54" s="3">
-        <v>155958000</v>
+        <v>136750000</v>
       </c>
       <c r="G54" s="3">
-        <v>168709000</v>
+        <v>152623000</v>
       </c>
       <c r="H54" s="3">
-        <v>155217000</v>
+        <v>165102000</v>
       </c>
       <c r="I54" s="3">
-        <v>157294000</v>
+        <v>151898000</v>
       </c>
       <c r="J54" s="3">
+        <v>153931000</v>
+      </c>
+      <c r="K54" s="3">
         <v>160383000</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1900,8 +1993,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1913,170 +2007,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>12218500</v>
+        <v>12786200</v>
       </c>
       <c r="E57" s="3">
-        <v>12384500</v>
+        <v>11957200</v>
       </c>
       <c r="F57" s="3">
-        <v>27174600</v>
+        <v>12119700</v>
       </c>
       <c r="G57" s="3">
-        <v>43441200</v>
+        <v>26593600</v>
       </c>
       <c r="H57" s="3">
-        <v>61562500</v>
+        <v>42512400</v>
       </c>
       <c r="I57" s="3">
-        <v>60263200</v>
+        <v>60246200</v>
       </c>
       <c r="J57" s="3">
+        <v>58974700</v>
+      </c>
+      <c r="K57" s="3">
         <v>15075100</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5080400</v>
+        <v>6349700</v>
       </c>
       <c r="E58" s="3">
-        <v>7489300</v>
+        <v>4971700</v>
       </c>
       <c r="F58" s="3">
-        <v>15829000</v>
+        <v>7329200</v>
       </c>
       <c r="G58" s="3">
-        <v>10424400</v>
+        <v>15490600</v>
       </c>
       <c r="H58" s="3">
-        <v>13377500</v>
+        <v>10201500</v>
       </c>
       <c r="I58" s="3">
-        <v>13819600</v>
+        <v>13091500</v>
       </c>
       <c r="J58" s="3">
+        <v>13524100</v>
+      </c>
+      <c r="K58" s="3">
         <v>7287300</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>10453600</v>
+        <v>12027500</v>
       </c>
       <c r="E59" s="3">
-        <v>11200800</v>
+        <v>15787000</v>
       </c>
       <c r="F59" s="3">
-        <v>18666500</v>
+        <v>10961300</v>
       </c>
       <c r="G59" s="3">
-        <v>22521700</v>
+        <v>18267400</v>
       </c>
       <c r="H59" s="3">
-        <v>29286200</v>
+        <v>22040200</v>
       </c>
       <c r="I59" s="3">
-        <v>28506400</v>
+        <v>28660000</v>
       </c>
       <c r="J59" s="3">
+        <v>27896900</v>
+      </c>
+      <c r="K59" s="3">
         <v>17616400</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>27752400</v>
+        <v>31163400</v>
       </c>
       <c r="E60" s="3">
-        <v>31074600</v>
+        <v>27159000</v>
       </c>
       <c r="F60" s="3">
-        <v>33586800</v>
+        <v>30410200</v>
       </c>
       <c r="G60" s="3">
-        <v>41708900</v>
+        <v>32868600</v>
       </c>
       <c r="H60" s="3">
-        <v>36878700</v>
+        <v>40817100</v>
       </c>
       <c r="I60" s="3">
-        <v>38093800</v>
+        <v>36090200</v>
       </c>
       <c r="J60" s="3">
+        <v>37279300</v>
+      </c>
+      <c r="K60" s="3">
         <v>39978700</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>22640600</v>
+        <v>22050000</v>
       </c>
       <c r="E61" s="3">
-        <v>23072600</v>
+        <v>22156500</v>
       </c>
       <c r="F61" s="3">
-        <v>21763200</v>
+        <v>22579300</v>
       </c>
       <c r="G61" s="3">
-        <v>21672400</v>
+        <v>21297900</v>
       </c>
       <c r="H61" s="3">
-        <v>23421500</v>
+        <v>21209000</v>
       </c>
       <c r="I61" s="3">
-        <v>21480500</v>
+        <v>22920800</v>
       </c>
       <c r="J61" s="3">
+        <v>21021200</v>
+      </c>
+      <c r="K61" s="3">
         <v>25920200</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>24513200</v>
+        <v>20617100</v>
       </c>
       <c r="E62" s="3">
-        <v>26029000</v>
+        <v>23989100</v>
       </c>
       <c r="F62" s="3">
-        <v>49289000</v>
+        <v>25472500</v>
       </c>
       <c r="G62" s="3">
-        <v>34058000</v>
+        <v>48235100</v>
       </c>
       <c r="H62" s="3">
-        <v>45650400</v>
+        <v>33329800</v>
       </c>
       <c r="I62" s="3">
-        <v>30603400</v>
+        <v>44674300</v>
       </c>
       <c r="J62" s="3">
+        <v>29949000</v>
+      </c>
+      <c r="K62" s="3">
         <v>26723600</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2101,9 +2214,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2128,9 +2244,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2155,36 +2274,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>75058900</v>
+        <v>73958000</v>
       </c>
       <c r="E66" s="3">
-        <v>80231300</v>
+        <v>73454000</v>
       </c>
       <c r="F66" s="3">
-        <v>93695100</v>
+        <v>78515800</v>
       </c>
       <c r="G66" s="3">
-        <v>97815100</v>
+        <v>91691800</v>
       </c>
       <c r="H66" s="3">
-        <v>89906200</v>
+        <v>95723600</v>
       </c>
       <c r="I66" s="3">
-        <v>91029300</v>
+        <v>87983800</v>
       </c>
       <c r="J66" s="3">
+        <v>89082900</v>
+      </c>
+      <c r="K66" s="3">
         <v>98143800</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2196,8 +2321,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2222,9 +2348,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2249,9 +2378,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2276,9 +2408,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2303,36 +2438,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>43912400</v>
+        <v>44508500</v>
       </c>
       <c r="E72" s="3">
-        <v>43344700</v>
+        <v>43174500</v>
       </c>
       <c r="F72" s="3">
-        <v>118557000</v>
+        <v>42417900</v>
       </c>
       <c r="G72" s="3">
-        <v>175420000</v>
+        <v>116022000</v>
       </c>
       <c r="H72" s="3">
-        <v>162764000</v>
+        <v>171669000</v>
       </c>
       <c r="I72" s="3">
-        <v>109406000</v>
+        <v>159284000</v>
       </c>
       <c r="J72" s="3">
+        <v>107067000</v>
+      </c>
+      <c r="K72" s="3">
         <v>65267300</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2357,9 +2498,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2384,9 +2528,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2411,36 +2558,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>53889200</v>
+        <v>56015600</v>
       </c>
       <c r="E76" s="3">
-        <v>59507000</v>
+        <v>52736900</v>
       </c>
       <c r="F76" s="3">
-        <v>62262600</v>
+        <v>58234600</v>
       </c>
       <c r="G76" s="3">
-        <v>70894100</v>
+        <v>60931300</v>
       </c>
       <c r="H76" s="3">
-        <v>65311000</v>
+        <v>69378200</v>
       </c>
       <c r="I76" s="3">
-        <v>66264700</v>
+        <v>63914600</v>
       </c>
       <c r="J76" s="3">
+        <v>64847900</v>
+      </c>
+      <c r="K76" s="3">
         <v>62239000</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2465,68 +2618,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
         <v>43100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42735</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42369</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42004</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41639</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41274</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40908</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3785600</v>
+        <v>4530300</v>
       </c>
       <c r="E81" s="3">
-        <v>-1642600</v>
+        <v>3704700</v>
       </c>
       <c r="F81" s="3">
-        <v>-9848800</v>
+        <v>-1607500</v>
       </c>
       <c r="G81" s="3">
-        <v>1462000</v>
+        <v>-9638200</v>
       </c>
       <c r="H81" s="3">
-        <v>5789500</v>
+        <v>1430700</v>
       </c>
       <c r="I81" s="3">
-        <v>12927600</v>
+        <v>5665700</v>
       </c>
       <c r="J81" s="3">
+        <v>12651200</v>
+      </c>
+      <c r="K81" s="3">
         <v>7696900</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2538,35 +2700,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>8395900</v>
+        <v>7672800</v>
       </c>
       <c r="E83" s="3">
-        <v>8481100</v>
+        <v>8216300</v>
       </c>
       <c r="F83" s="3">
-        <v>10030600</v>
+        <v>8299800</v>
       </c>
       <c r="G83" s="3">
-        <v>8612400</v>
+        <v>9816100</v>
       </c>
       <c r="H83" s="3">
-        <v>9654700</v>
+        <v>8428200</v>
       </c>
       <c r="I83" s="3">
-        <v>10821600</v>
-      </c>
-      <c r="J83" s="3" t="s">
+        <v>9448300</v>
+      </c>
+      <c r="J83" s="3">
+        <v>10590200</v>
+      </c>
+      <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2591,9 +2757,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2618,9 +2787,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2645,9 +2817,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2672,9 +2847,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2699,36 +2877,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>11359000</v>
+        <v>14984400</v>
       </c>
       <c r="E89" s="3">
-        <v>9600900</v>
+        <v>11116200</v>
       </c>
       <c r="F89" s="3">
-        <v>12058000</v>
+        <v>9395600</v>
       </c>
       <c r="G89" s="3">
-        <v>16542600</v>
+        <v>11800200</v>
       </c>
       <c r="H89" s="3">
-        <v>12373300</v>
+        <v>16188900</v>
       </c>
       <c r="I89" s="3">
-        <v>14095600</v>
+        <v>12108700</v>
       </c>
       <c r="J89" s="3">
+        <v>13794200</v>
+      </c>
+      <c r="K89" s="3">
         <v>16136500</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2740,35 +2924,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-9525700</v>
+        <v>-9638200</v>
       </c>
       <c r="E91" s="3">
-        <v>-10173100</v>
+        <v>-9322000</v>
       </c>
       <c r="F91" s="3">
-        <v>-12540500</v>
+        <v>-9955600</v>
       </c>
       <c r="G91" s="3">
-        <v>-13066700</v>
+        <v>-12272300</v>
       </c>
       <c r="H91" s="3">
-        <v>-12244300</v>
+        <v>-12787300</v>
       </c>
       <c r="I91" s="3">
-        <v>-12641500</v>
+        <v>-11982500</v>
       </c>
       <c r="J91" s="3">
+        <v>-12371200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-13080200</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2793,9 +2981,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2820,36 +3011,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4227700</v>
+        <v>-8274500</v>
       </c>
       <c r="E94" s="3">
-        <v>-4985000</v>
+        <v>-4137300</v>
       </c>
       <c r="F94" s="3">
-        <v>-12255500</v>
+        <v>-4878400</v>
       </c>
       <c r="G94" s="3">
-        <v>-9621100</v>
+        <v>-11993500</v>
       </c>
       <c r="H94" s="3">
-        <v>-12320600</v>
+        <v>-9415400</v>
       </c>
       <c r="I94" s="3">
-        <v>-9398900</v>
-      </c>
-      <c r="J94" s="3" t="s">
+        <v>-12057100</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-9197900</v>
+      </c>
+      <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2861,35 +3058,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3231300</v>
+        <v>-3243500</v>
       </c>
       <c r="E96" s="3">
-        <v>-3232500</v>
+        <v>-3162200</v>
       </c>
       <c r="F96" s="3">
-        <v>-3878700</v>
+        <v>-3163300</v>
       </c>
       <c r="G96" s="3">
-        <v>-4494700</v>
+        <v>-3795800</v>
       </c>
       <c r="H96" s="3">
-        <v>-4430700</v>
+        <v>-4398600</v>
       </c>
       <c r="I96" s="3">
-        <v>-4308400</v>
+        <v>-4336000</v>
       </c>
       <c r="J96" s="3">
+        <v>-4216300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-4145800</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2914,9 +3115,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2941,9 +3145,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2968,88 +3175,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-5155500</v>
+        <v>-2895400</v>
       </c>
       <c r="E100" s="3">
-        <v>-4096400</v>
+        <v>-5045300</v>
       </c>
       <c r="F100" s="3">
-        <v>-1515800</v>
+        <v>-4008800</v>
       </c>
       <c r="G100" s="3">
-        <v>-5679500</v>
+        <v>-1483400</v>
       </c>
       <c r="H100" s="3">
-        <v>-2816200</v>
+        <v>-5558100</v>
       </c>
       <c r="I100" s="3">
-        <v>2323600</v>
-      </c>
-      <c r="J100" s="3" t="s">
+        <v>-2756000</v>
+      </c>
+      <c r="J100" s="3">
+        <v>2274000</v>
+      </c>
+      <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-80800</v>
+        <v>19800</v>
       </c>
       <c r="E101" s="3">
+        <v>-79100</v>
+      </c>
+      <c r="F101" s="3">
         <v>2200</v>
       </c>
-      <c r="F101" s="3">
-        <v>136900</v>
-      </c>
       <c r="G101" s="3">
-        <v>85300</v>
+        <v>134000</v>
       </c>
       <c r="H101" s="3">
-        <v>-47100</v>
+        <v>83400</v>
       </c>
       <c r="I101" s="3">
-        <v>-13500</v>
-      </c>
-      <c r="J101" s="3" t="s">
+        <v>-46100</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1895000</v>
+        <v>3834200</v>
       </c>
       <c r="E102" s="3">
-        <v>521700</v>
+        <v>1854500</v>
       </c>
       <c r="F102" s="3">
-        <v>-1576400</v>
+        <v>510600</v>
       </c>
       <c r="G102" s="3">
-        <v>1327300</v>
+        <v>-1542700</v>
       </c>
       <c r="H102" s="3">
-        <v>-2810600</v>
+        <v>1298900</v>
       </c>
       <c r="I102" s="3">
-        <v>7006800</v>
+        <v>-2750500</v>
       </c>
       <c r="J102" s="3">
+        <v>6857000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-55000</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
